--- a/dictionary.xlsx
+++ b/dictionary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="word" sheetId="1" state="visible" r:id="rId3"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="97">
   <si>
     <t xml:space="preserve">ordinal</t>
   </si>
@@ -175,45 +175,84 @@
     <t xml:space="preserve">sdsdsdsdsd</t>
   </si>
   <si>
-    <t xml:space="preserve">sku</t>
+    <t xml:space="preserve">ߣߞߏ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߞߛߛߊߛߊ</t>
   </si>
   <si>
     <t xml:space="preserve">VERB</t>
   </si>
   <si>
+    <t xml:space="preserve">ߍߍߍߥߛߊߘߛߊߘߛ</t>
+  </si>
+  <si>
     <t xml:space="preserve">NOUN</t>
   </si>
   <si>
+    <t xml:space="preserve">ߛߊߛߊߛ</t>
+  </si>
+  <si>
     <t xml:space="preserve">PRONOUN</t>
   </si>
   <si>
+    <t xml:space="preserve">ߣߣߢߣߊߛߊ</t>
+  </si>
+  <si>
     <t xml:space="preserve">PREPOSITION</t>
   </si>
   <si>
+    <t xml:space="preserve">ߘߛߘߛߊ</t>
+  </si>
+  <si>
     <t xml:space="preserve">ADJECTIVE</t>
   </si>
   <si>
+    <t xml:space="preserve">ߘߛߘߛߘ</t>
+  </si>
+  <si>
     <t xml:space="preserve">CONJUNCTION</t>
   </si>
   <si>
+    <t xml:space="preserve">ߛߘߡߘߛߘ߸߸ߛߘ</t>
+  </si>
+  <si>
     <t xml:space="preserve">INTERJECTION</t>
   </si>
   <si>
+    <t xml:space="preserve">ߘߛߘߗߗߑ</t>
+  </si>
+  <si>
     <t xml:space="preserve">ADVERB</t>
   </si>
   <si>
+    <t xml:space="preserve">ߋߊߊߛߊߛߘ</t>
+  </si>
+  <si>
     <t xml:space="preserve">IMAGE</t>
   </si>
   <si>
+    <t xml:space="preserve">ߏߏߘߔߛߔߘߛߘ</t>
+  </si>
+  <si>
     <t xml:space="preserve">VOWEL</t>
   </si>
   <si>
+    <t xml:space="preserve">ߐߐߑߐ</t>
+  </si>
+  <si>
     <t xml:space="preserve">CONSONANT</t>
   </si>
   <si>
+    <t xml:space="preserve">ߘߛߘߛߋߋߘ</t>
+  </si>
+  <si>
     <t xml:space="preserve">WAR</t>
   </si>
   <si>
+    <t xml:space="preserve">ߛߘߛߘߛߥߛߊߛ</t>
+  </si>
+  <si>
     <t xml:space="preserve">ANIMAL</t>
   </si>
   <si>
@@ -223,31 +262,55 @@
     <t xml:space="preserve">INFINITIVE</t>
   </si>
   <si>
+    <t xml:space="preserve">ߘߛߘߛߘߘߛߘߛߘ</t>
+  </si>
+  <si>
     <t xml:space="preserve">UNDEFINED</t>
   </si>
   <si>
-    <t xml:space="preserve">text</t>
+    <t xml:space="preserve">ߋߣߜߟߌߛߤ</t>
   </si>
   <si>
     <t xml:space="preserve">ENGLISH</t>
   </si>
   <si>
+    <t xml:space="preserve">ߒߞߏ</t>
+  </si>
+  <si>
     <t xml:space="preserve">NKO</t>
   </si>
   <si>
+    <t xml:space="preserve">ߊߙߊߓߌߗ</t>
+  </si>
+  <si>
     <t xml:space="preserve">ARABIC</t>
   </si>
   <si>
+    <t xml:space="preserve">ߝߙߊߣߗߊߌߛ</t>
+  </si>
+  <si>
     <t xml:space="preserve">FRENCH</t>
   </si>
   <si>
+    <t xml:space="preserve">ߤߌߣߘߌߣ</t>
+  </si>
+  <si>
     <t xml:space="preserve">HINDI</t>
   </si>
   <si>
+    <t xml:space="preserve">ߟߊߕߌߣ</t>
+  </si>
+  <si>
     <t xml:space="preserve">LATIN</t>
   </si>
   <si>
+    <t xml:space="preserve">ߛߥߊߤߌߟߌ</t>
+  </si>
+  <si>
     <t xml:space="preserve">SWAHILI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߊߡߊߙߌߗ</t>
   </si>
   <si>
     <t xml:space="preserve">AMHARIC</t>
@@ -335,7 +398,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -349,6 +412,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -478,7 +545,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="1" sqref="A2:A5 B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -711,8 +778,8 @@
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -732,6 +799,9 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B2" s="0" t="n">
         <v>1</v>
       </c>
@@ -743,6 +813,9 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="B3" s="0" t="n">
         <v>2</v>
       </c>
@@ -754,6 +827,9 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="B4" s="0" t="n">
         <v>3</v>
       </c>
@@ -765,6 +841,9 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="B5" s="0" t="n">
         <v>4</v>
       </c>
@@ -791,26 +870,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A2:A5 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="16.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="16.05"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -820,13 +903,19 @@
       <c r="B2" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="C2" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -834,7 +923,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -842,7 +934,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -850,7 +945,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -858,7 +956,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -866,7 +967,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>57</v>
+        <v>63</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -874,71 +978,96 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>58</v>
+        <v>65</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>59</v>
+      <c r="B10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>60</v>
+      <c r="B11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>61</v>
+      <c r="B12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>62</v>
+      <c r="B13" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>63</v>
+      <c r="B14" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>64</v>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>65</v>
+      <c r="B16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>66</v>
+      <c r="B17" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -957,84 +1086,111 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="1" sqref="A2:A5 B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>67</v>
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>68</v>
+      <c r="B2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>69</v>
+      <c r="B3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>70</v>
+      <c r="B4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>71</v>
+      <c r="B5" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>72</v>
+      <c r="B6" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>73</v>
+      <c r="B7" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>74</v>
+      <c r="B8" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>75</v>
+      <c r="B9" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/dictionary.xlsx
+++ b/dictionary.xlsx
@@ -5,13 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="word" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="definition" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="type" sheetId="3" state="visible" r:id="rId5"/>
     <sheet name="language" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="image" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="sound" sheetId="6" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="117">
   <si>
     <t xml:space="preserve">ordinal</t>
   </si>
@@ -31,6 +33,9 @@
     <t xml:space="preserve">root</t>
   </si>
   <si>
+    <t xml:space="preserve">type</t>
+  </si>
+  <si>
     <t xml:space="preserve">nko</t>
   </si>
   <si>
@@ -43,9 +48,6 @@
     <t xml:space="preserve">arabic</t>
   </si>
   <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
     <t xml:space="preserve">ߞߊߟߊ</t>
   </si>
   <si>
@@ -148,6 +150,30 @@
     <t xml:space="preserve">emperor</t>
   </si>
   <si>
+    <t xml:space="preserve">lobster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crevete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߛߎ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">corp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߛߎߤߎ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߛߊߤߊ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߡߌߤߌ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߡߐߤߐ</t>
+  </si>
+  <si>
     <t xml:space="preserve">word</t>
   </si>
   <si>
@@ -175,6 +201,9 @@
     <t xml:space="preserve">sdsdsdsdsd</t>
   </si>
   <si>
+    <t xml:space="preserve">sub</t>
+  </si>
+  <si>
     <t xml:space="preserve">ߣߞߏ</t>
   </si>
   <si>
@@ -190,12 +219,18 @@
     <t xml:space="preserve">NOUN</t>
   </si>
   <si>
+    <t xml:space="preserve">non</t>
+  </si>
+  <si>
     <t xml:space="preserve">ߛߊߛߊߛ</t>
   </si>
   <si>
     <t xml:space="preserve">PRONOUN</t>
   </si>
   <si>
+    <t xml:space="preserve">prenon</t>
+  </si>
+  <si>
     <t xml:space="preserve">ߣߣߢߣߊߛߊ</t>
   </si>
   <si>
@@ -208,6 +243,9 @@
     <t xml:space="preserve">ADJECTIVE</t>
   </si>
   <si>
+    <t xml:space="preserve">adjectif</t>
+  </si>
+  <si>
     <t xml:space="preserve">ߘߛߘߛߘ</t>
   </si>
   <si>
@@ -226,24 +264,36 @@
     <t xml:space="preserve">ADVERB</t>
   </si>
   <si>
+    <t xml:space="preserve">adverbe</t>
+  </si>
+  <si>
     <t xml:space="preserve">ߋߊߊߛߊߛߘ</t>
   </si>
   <si>
     <t xml:space="preserve">IMAGE</t>
   </si>
   <si>
+    <t xml:space="preserve">image</t>
+  </si>
+  <si>
     <t xml:space="preserve">ߏߏߘߔߛߔߘߛߘ</t>
   </si>
   <si>
     <t xml:space="preserve">VOWEL</t>
   </si>
   <si>
+    <t xml:space="preserve">vowel</t>
+  </si>
+  <si>
     <t xml:space="preserve">ߐߐߑߐ</t>
   </si>
   <si>
     <t xml:space="preserve">CONSONANT</t>
   </si>
   <si>
+    <t xml:space="preserve">Consonne</t>
+  </si>
+  <si>
     <t xml:space="preserve">ߘߛߘߛߋߋߘ</t>
   </si>
   <si>
@@ -256,64 +306,76 @@
     <t xml:space="preserve">ANIMAL</t>
   </si>
   <si>
+    <t xml:space="preserve">ߜߤߊߊ</t>
+  </si>
+  <si>
     <t xml:space="preserve">SOUND</t>
   </si>
   <si>
+    <t xml:space="preserve">son</t>
+  </si>
+  <si>
     <t xml:space="preserve">INFINITIVE</t>
   </si>
   <si>
+    <t xml:space="preserve">infinitif</t>
+  </si>
+  <si>
     <t xml:space="preserve">ߘߛߘߛߘߘߛߘߛߘ</t>
   </si>
   <si>
     <t xml:space="preserve">UNDEFINED</t>
   </si>
   <si>
-    <t xml:space="preserve">ߋߣߜߟߌߛߤ</t>
+    <t xml:space="preserve">undefini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߞߋߟߋl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߛߌߛi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMAGE_ANIMAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߒߞߏ</t>
   </si>
   <si>
     <t xml:space="preserve">ENGLISH</t>
   </si>
   <si>
-    <t xml:space="preserve">ߒߞߏ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NKO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ߊߙߊߓߌߗ</t>
-  </si>
-  <si>
     <t xml:space="preserve">ARABIC</t>
   </si>
   <si>
-    <t xml:space="preserve">ߝߙߊߣߗߊߌߛ</t>
-  </si>
-  <si>
     <t xml:space="preserve">FRENCH</t>
   </si>
   <si>
-    <t xml:space="preserve">ߤߌߣߘߌߣ</t>
-  </si>
-  <si>
     <t xml:space="preserve">HINDI</t>
   </si>
   <si>
-    <t xml:space="preserve">ߟߊߕߌߣ</t>
-  </si>
-  <si>
     <t xml:space="preserve">LATIN</t>
   </si>
   <si>
-    <t xml:space="preserve">ߛߥߊߤߌߟߌ</t>
-  </si>
-  <si>
     <t xml:space="preserve">SWAHILI</t>
   </si>
   <si>
-    <t xml:space="preserve">ߊߡߊߙߌߗ</t>
-  </si>
-  <si>
     <t xml:space="preserve">AMHARIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIT</t>
   </si>
 </sst>
 </file>
@@ -323,11 +385,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -347,11 +410,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial Unicode MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -398,20 +456,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -542,222 +592,327 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="1" sqref="A2:A5 B15"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="F5" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="F6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="F7" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="E8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="F8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="E10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="F10" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="E11" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="E12" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="E13" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="E14" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="E15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="F15" s="1" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -778,80 +933,80 @@
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="0" t="s">
+      <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="B3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>47</v>
+      <c r="C4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>49</v>
+      <c r="C5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -870,204 +1025,283 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A2:A5 D1"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="16.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="16.05"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>58</v>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>60</v>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>62</v>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>64</v>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+      <c r="D16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>80</v>
+      <c r="C19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1086,111 +1320,84 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="1" sqref="A2:A5 B9"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>86</v>
+      <c r="B4" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>88</v>
+      <c r="B5" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>90</v>
+      <c r="B6" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>92</v>
+      <c r="B7" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>94</v>
+      <c r="B8" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>96</v>
+      <c r="B9" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1202,4 +1409,396 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D42"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/dictionary.xlsx
+++ b/dictionary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="word" sheetId="1" state="visible" r:id="rId3"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="118">
   <si>
     <t xml:space="preserve">ordinal</t>
   </si>
@@ -376,6 +376,9 @@
   </si>
   <si>
     <t xml:space="preserve">GIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sku</t>
   </si>
 </sst>
 </file>
@@ -456,12 +459,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -627,10 +634,10 @@
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -641,10 +648,10 @@
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -658,10 +665,10 @@
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -672,10 +679,10 @@
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -689,10 +696,10 @@
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -706,10 +713,10 @@
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -723,10 +730,10 @@
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -740,10 +747,10 @@
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -757,10 +764,10 @@
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -774,10 +781,10 @@
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -791,10 +798,10 @@
       <c r="B12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -808,10 +815,10 @@
       <c r="B13" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -822,10 +829,10 @@
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -839,10 +846,10 @@
       <c r="B15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -856,7 +863,7 @@
       <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="2" t="n">
         <v>4</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -870,10 +877,10 @@
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -881,13 +888,13 @@
       <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -895,7 +902,7 @@
       <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -903,7 +910,7 @@
       <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="2" t="s">
         <v>47</v>
       </c>
     </row>
@@ -911,7 +918,7 @@
       <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" s="2" t="s">
         <v>48</v>
       </c>
     </row>
@@ -960,7 +967,7 @@
       <c r="B2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -974,7 +981,7 @@
       <c r="B3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -988,7 +995,7 @@
       <c r="B4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1002,7 +1009,7 @@
       <c r="B5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1033,7 +1040,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="16.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="16.05"/>
   </cols>
   <sheetData>
@@ -1065,7 +1072,7 @@
       <c r="D2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="2" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1080,7 +1087,7 @@
       <c r="D3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="2" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1095,7 +1102,7 @@
       <c r="D4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="2" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1122,7 +1129,7 @@
       <c r="D6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="2" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1161,7 +1168,7 @@
       <c r="D9" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1170,13 +1177,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>80</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" s="2" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1185,13 +1192,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>83</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" s="2" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1200,13 +1207,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>86</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" s="2" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1215,7 +1222,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>89</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1227,7 +1234,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -1245,7 +1252,7 @@
       <c r="D15" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" s="2" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1254,13 +1261,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="2" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1269,13 +1276,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>98</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" s="2" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1294,7 +1301,7 @@
       <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="2" t="n">
         <v>9</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1340,7 +1347,7 @@
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1348,7 +1355,7 @@
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1418,354 +1425,354 @@
   </sheetPr>
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="2" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="2" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="2" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="2" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="2" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="2" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="2" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="2" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="2" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="2" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="2" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="2" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="2" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="2" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="2" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="2" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="2" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="2" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="2" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="A23" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23" s="2" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="A24" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24" s="2" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="A25" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25" s="2" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="A26" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26" s="2" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="A27" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27" s="2" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="A28" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28" s="2" t="n">
         <v>27</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="A29" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29" s="2" t="n">
         <v>28</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="A30" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30" s="2" t="n">
         <v>29</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+      <c r="A31" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31" s="2" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+      <c r="A32" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32" s="2" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+      <c r="A33" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33" s="2" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+      <c r="A34" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34" s="2" t="n">
         <v>33</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+      <c r="A35" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35" s="2" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+      <c r="A36" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B36" s="2" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+      <c r="A37" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B37" s="2" t="n">
         <v>36</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+      <c r="A38" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B38" s="2" t="n">
         <v>37</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+      <c r="A39" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B39" s="2" t="n">
         <v>38</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
+      <c r="A40" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B40" s="2" t="n">
         <v>39</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
+      <c r="A41" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B41" s="2" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
+      <c r="A42" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B42" s="2" t="n">
         <v>41</v>
       </c>
     </row>
@@ -1785,14 +1792,231 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/dictionary.xlsx
+++ b/dictionary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="word" sheetId="1" state="visible" r:id="rId3"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="122">
   <si>
     <t xml:space="preserve">ordinal</t>
   </si>
@@ -174,13 +174,28 @@
     <t xml:space="preserve">ߡߐߤߐ</t>
   </si>
   <si>
+    <t xml:space="preserve">ߔߏ߲ߔߏ߲</t>
+  </si>
+  <si>
+    <t xml:space="preserve">very distant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߔߊ߲ߔߊ߲</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߔߊ߲</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߔߏ߲</t>
+  </si>
+  <si>
     <t xml:space="preserve">word</t>
   </si>
   <si>
-    <t xml:space="preserve">ߞߊ ߛ ߘߡߛߘߣߛߞ ߘ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tetsing</t>
+    <t xml:space="preserve">ߛߍߓߍߟߌ ߝߋߌ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Something to write with</t>
   </si>
   <si>
     <t xml:space="preserve">ߤߘߤߘߤߛ ߘߛߘߛߘ ߘߛߛߘ</t>
@@ -376,9 +391,6 @@
   </si>
   <si>
     <t xml:space="preserve">GIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sku</t>
   </si>
 </sst>
 </file>
@@ -599,10 +611,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -920,6 +932,55 @@
       </c>
       <c r="D21" s="2" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -940,18 +1001,21 @@
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.21"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -968,10 +1032,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -982,10 +1046,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -996,10 +1060,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1010,10 +1074,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1049,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -1067,13 +1131,13 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1082,13 +1146,13 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1097,13 +1161,13 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1112,10 +1176,10 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1124,13 +1188,13 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1139,10 +1203,10 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1151,10 +1215,10 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1163,13 +1227,13 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1178,13 +1242,13 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1193,13 +1257,13 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1208,13 +1272,13 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1223,10 +1287,10 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1235,10 +1299,10 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="3" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1247,13 +1311,13 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1262,13 +1326,13 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1277,13 +1341,13 @@
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1291,10 +1355,10 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1305,10 +1369,10 @@
         <v>9</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1340,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1348,7 +1412,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1356,7 +1420,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1364,7 +1428,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1372,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1380,7 +1444,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1388,7 +1452,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1396,7 +1460,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1404,7 +1468,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1436,13 +1500,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1453,7 +1517,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1794,225 +1858,225 @@
   </sheetPr>
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>117</v>
+      <c r="B1" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="2" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="2" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="2" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="2" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="2" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="2" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="2" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="2" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="2" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="2" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="2" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="2" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="2" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="2" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="2" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="2" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="2" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="2" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="A23" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23" s="2" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="A24" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24" s="2" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="A25" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25" s="2" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="A26" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26" s="2" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="A27" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27" s="2" t="n">
         <v>26</v>
       </c>
     </row>

--- a/dictionary.xlsx
+++ b/dictionary.xlsx
@@ -14,6 +14,11 @@
     <sheet name="language" sheetId="4" state="visible" r:id="rId6"/>
     <sheet name="image" sheetId="5" state="visible" r:id="rId7"/>
     <sheet name="sound" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="books" sheetId="7" state="visible" r:id="rId9"/>
+    <sheet name="name" sheetId="8" state="visible" r:id="rId10"/>
+    <sheet name="politics" sheetId="9" state="visible" r:id="rId11"/>
+    <sheet name="root" sheetId="10" state="visible" r:id="rId12"/>
+    <sheet name="transliteration" sheetId="11" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="501">
   <si>
     <t xml:space="preserve">ordinal</t>
   </si>
@@ -48,6 +53,24 @@
     <t xml:space="preserve">arabic</t>
   </si>
   <si>
+    <t xml:space="preserve">sankri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hindi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">greek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hebrew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amharic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">latin</t>
+  </si>
+  <si>
     <t xml:space="preserve">ߞߊߟߊ</t>
   </si>
   <si>
@@ -189,9 +212,924 @@
     <t xml:space="preserve">ߔߏ߲</t>
   </si>
   <si>
+    <t xml:space="preserve">chimey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">centurion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zinc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aluminium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enfer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">earth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">terra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heaven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">postman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pluto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zeus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oxygen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plutonium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbonation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oxydation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vache</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soleil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">etoile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaiya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kuku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kukukan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kukulkan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">itchy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">goree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pablo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chicken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">palabre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calebasse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kalil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zeus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kulun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">praying mantis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pirogue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">river</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ocean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">america</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oceania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">united</t>
+  </si>
+  <si>
+    <t xml:space="preserve">communication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">federacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conferacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">context</t>
+  </si>
+  <si>
+    <t xml:space="preserve">architect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">director</t>
+  </si>
+  <si>
+    <t xml:space="preserve">architecture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">community</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">train</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mantaue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kuna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">muesin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paragraph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sentence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prologue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blindness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aveuglage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aveugle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">keta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">keita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thunder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eclaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kamara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anarchy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">money</t>
+  </si>
+  <si>
+    <t xml:space="preserve">monani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lisa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kili</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cameroun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gloom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">antagonist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conakry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">senegal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protagonist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">computer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ordinateur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cigar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cigarrete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">femme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">homme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gamin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">portable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">port</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parlor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enfant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tamtam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mostico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moustique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consumer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">producer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idolatry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mowhak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apache</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fluter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">copper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jaw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߜ߭ߍߙߋ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">directly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">immediately</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imediatement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">media</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">godness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">god</t>
+  </si>
+  <si>
+    <t xml:space="preserve">war</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fighting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">firefighter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bamba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">smoke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">district</t>
+  </si>
+  <si>
+    <t xml:space="preserve">packer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">packing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">viande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phobia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parklot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">budha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mohammad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jesus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">budi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poussier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">docker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dockerization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dockerisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jihad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crusad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">templar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">temple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">satanic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">satan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">electric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">electricity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">light</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lumiere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">romain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tartar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tardive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lutheran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anglican</t>
+  </si>
+  <si>
+    <t xml:space="preserve">budhism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">christiaty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">posterity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">island</t>
+  </si>
+  <si>
+    <t xml:space="preserve">islam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">islan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dieus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grandiose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abadan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">never</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jamais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yebede</t>
+  </si>
+  <si>
+    <t xml:space="preserve">circuit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">donso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hunter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">so</t>
+  </si>
+  <si>
+    <t xml:space="preserve">katan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">should</t>
+  </si>
+  <si>
+    <t xml:space="preserve">must</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kadan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">djidja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">djna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">djani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">before</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bravery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bravour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bravor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">courage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plutot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">serif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fisa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">currency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ici</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">potable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߦߋ߲</t>
+  </si>
+  <si>
+    <t xml:space="preserve">there</t>
+  </si>
+  <si>
+    <t xml:space="preserve">la bas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">python</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wagadougou bida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">county</t>
+  </si>
+  <si>
+    <t xml:space="preserve">law</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sherif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mango</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mangue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ossopahne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">palm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">palm tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">past</t>
+  </si>
+  <si>
+    <t xml:space="preserve">future</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">horo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noble</t>
+  </si>
+  <si>
+    <t xml:space="preserve">writer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">house</t>
+  </si>
+  <si>
+    <t xml:space="preserve">writer house</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mother</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">father</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">farow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forcefully pull away</t>
+  </si>
+  <si>
+    <t xml:space="preserve">horoya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">itchen itza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">antilope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">twelve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tongue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">magic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribalitisic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">haily</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selasy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">android</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">satellite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conferate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyatu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">welcome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rabbit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">whale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buffalo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abbeil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sinka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">borrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߣߎ߲ߞߎ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">smooth</t>
+  </si>
+  <si>
     <t xml:space="preserve">word</t>
   </si>
   <si>
+    <t xml:space="preserve">sub_ordinal</t>
+  </si>
+  <si>
     <t xml:space="preserve">ߛߍߓߍߟߌ ߝߋߌ</t>
   </si>
   <si>
@@ -216,6 +1154,21 @@
     <t xml:space="preserve">sdsdsdsdsd</t>
   </si>
   <si>
+    <t xml:space="preserve">ߛߘߘߛߘ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߙߙߙߥߘߛ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߘߎ ߟߊ ߖߏ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Godess of earth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seal</t>
+  </si>
+  <si>
     <t xml:space="preserve">sub</t>
   </si>
   <si>
@@ -360,6 +1313,9 @@
     <t xml:space="preserve">ߒߞߏ</t>
   </si>
   <si>
+    <t xml:space="preserve">13,14,16</t>
+  </si>
+  <si>
     <t xml:space="preserve">ENGLISH</t>
   </si>
   <si>
@@ -375,12 +1331,36 @@
     <t xml:space="preserve">LATIN</t>
   </si>
   <si>
+    <t xml:space="preserve">2,4,15</t>
+  </si>
+  <si>
     <t xml:space="preserve">SWAHILI</t>
   </si>
   <si>
     <t xml:space="preserve">AMHARIC</t>
   </si>
   <si>
+    <t xml:space="preserve">GREEK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANKRIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZULU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUSU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poulho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spanish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maninkan</t>
+  </si>
+  <si>
     <t xml:space="preserve">id</t>
   </si>
   <si>
@@ -391,6 +1371,168 @@
   </si>
   <si>
     <t xml:space="preserve">GIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">translation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vs naipul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molliaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virginia wolf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jules verne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agatha christy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bastian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scheinteider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noeur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wilsher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Song</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thiery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Henry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Odengaar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arsene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aaron Ramsey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bould</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benzema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zinedine </t>
+  </si>
+  <si>
+    <t xml:space="preserve">zidane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vardana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arthur legend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ousmane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sanoh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kerfala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">djene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">keita </t>
+  </si>
+  <si>
+    <t xml:space="preserve">adama </t>
+  </si>
+  <si>
+    <t xml:space="preserve">konate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clinton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caeser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michelle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">James</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maddison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abraham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lincoln</t>
+  </si>
+  <si>
+    <t xml:space="preserve">George</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Washington</t>
   </si>
 </sst>
 </file>
@@ -480,11 +1622,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -611,10 +1753,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:M301"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A288" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E301" activeCellId="0" sqref="E301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -641,166 +1783,184 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>14</v>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>17</v>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>19</v>
+      <c r="D7" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>22</v>
+      <c r="D8" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>24</v>
+      <c r="D9" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>27</v>
+      <c r="D10" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>30</v>
+      <c r="D11" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -810,14 +1970,14 @@
       <c r="B12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>32</v>
+      <c r="D12" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -827,28 +1987,28 @@
       <c r="B13" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>34</v>
+      <c r="D13" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="C14" s="2" t="n">
+      <c r="C14" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>36</v>
+      <c r="D14" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -858,55 +2018,55 @@
       <c r="B15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="C15" s="2" t="n">
+      <c r="C15" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>38</v>
+      <c r="D15" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="C16" s="2" t="n">
+      <c r="C16" s="1" t="n">
         <v>4</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>44</v>
+      <c r="D17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="n">
+      <c r="B18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="D18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -914,79 +2074,3069 @@
       <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>46</v>
+      <c r="D19" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>47</v>
+      <c r="D20" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>48</v>
+      <c r="D21" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="n">
+      <c r="B22" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>50</v>
+      <c r="D22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>51</v>
+      <c r="D23" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>52</v>
+      <c r="D24" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="n">
+      <c r="B25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>51</v>
+      <c r="D25" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="F31" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="n">
         <v>53</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="1" t="n">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="1" t="n">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="1" t="n">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F266" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="E273" s="1" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="D298" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="F299" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="D300" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="F300" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D301" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>363</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E72"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="n">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -999,15 +5149,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="26.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="21.21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1015,12 +5166,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>364</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1031,11 +5185,12 @@
       <c r="B2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>56</v>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1045,11 +5200,12 @@
       <c r="B3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>58</v>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1059,11 +5215,12 @@
       <c r="B4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>60</v>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1073,11 +5230,45 @@
       <c r="B5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>62</v>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E8" s="1" t="s">
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -1099,13 +5290,12 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="16.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="16.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="16.05"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1113,10 +5303,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>379</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>380</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -1129,225 +5319,209 @@
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>65</v>
+        <v>381</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>66</v>
+        <v>382</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>67</v>
+        <v>383</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>69</v>
+        <v>384</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>70</v>
+        <v>386</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>72</v>
+        <v>387</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>73</v>
+        <v>389</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>74</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>75</v>
+        <v>391</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>77</v>
+        <v>392</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>78</v>
+        <v>394</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>79</v>
+        <v>395</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>80</v>
+        <v>396</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>81</v>
+        <v>397</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>82</v>
+        <v>398</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>84</v>
+        <v>399</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="3" t="s">
-        <v>85</v>
+      <c r="C10" s="2" t="s">
+        <v>401</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>87</v>
+        <v>402</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="3" t="s">
-        <v>88</v>
+      <c r="C11" s="2" t="s">
+        <v>404</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>90</v>
+        <v>405</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="3" t="s">
-        <v>91</v>
+      <c r="C12" s="2" t="s">
+        <v>407</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>93</v>
+        <v>408</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="3" t="s">
-        <v>94</v>
+      <c r="C13" s="2" t="s">
+        <v>410</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>95</v>
+        <v>411</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="3" t="s">
-        <v>96</v>
+      <c r="C14" s="2" t="s">
+        <v>412</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>97</v>
+        <v>413</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>98</v>
+        <v>414</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>100</v>
+        <v>415</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="3" t="s">
-        <v>70</v>
+      <c r="C16" s="2" t="s">
+        <v>386</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>102</v>
+        <v>417</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="3" t="s">
-        <v>103</v>
+      <c r="C17" s="2" t="s">
+        <v>419</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>105</v>
+        <v>420</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1355,24 +5529,24 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>106</v>
+        <v>422</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>95</v>
+        <v>411</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="n">
+      <c r="B19" s="1" t="n">
         <v>9</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>107</v>
+        <v>423</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>108</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -1391,10 +5565,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1404,23 +5578,26 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>109</v>
+        <v>425</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>110</v>
+      <c r="B2" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>111</v>
+      <c r="B3" s="2" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1428,7 +5605,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>112</v>
+        <v>429</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1436,7 +5613,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>113</v>
+        <v>430</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1444,7 +5621,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>114</v>
+        <v>431</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1452,7 +5629,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>115</v>
+        <v>432</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1460,7 +5640,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>116</v>
+        <v>434</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1468,7 +5648,71 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>117</v>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -1487,7 +5731,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
@@ -1496,349 +5740,399 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>120</v>
+      <c r="B1" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>121</v>
+      <c r="C2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="C3" s="1" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="C4" s="1" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="C12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="1" t="n">
         <v>12</v>
       </c>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B14" s="1" t="n">
         <v>13</v>
       </c>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B15" s="1" t="n">
         <v>14</v>
       </c>
+      <c r="C15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="n">
+      <c r="B16" s="1" t="n">
         <v>15</v>
       </c>
+      <c r="C16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="n">
+      <c r="B17" s="1" t="n">
         <v>16</v>
       </c>
+      <c r="C17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
+      <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="n">
+      <c r="B18" s="1" t="n">
         <v>17</v>
       </c>
+      <c r="C18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
+      <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="n">
+      <c r="B19" s="1" t="n">
         <v>18</v>
       </c>
+      <c r="C19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
+      <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="n">
+      <c r="B20" s="1" t="n">
         <v>19</v>
       </c>
+      <c r="C20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
+      <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="n">
+      <c r="B21" s="1" t="n">
         <v>20</v>
       </c>
+      <c r="C21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
+      <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="n">
+      <c r="B22" s="1" t="n">
         <v>21</v>
       </c>
+      <c r="C22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
+      <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="n">
+      <c r="B23" s="1" t="n">
         <v>22</v>
       </c>
+      <c r="C23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
+      <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="n">
+      <c r="B24" s="1" t="n">
         <v>23</v>
       </c>
+      <c r="C24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
+      <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="n">
+      <c r="B25" s="1" t="n">
         <v>24</v>
       </c>
+      <c r="C25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
+      <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="n">
+      <c r="B26" s="1" t="n">
         <v>25</v>
       </c>
+      <c r="C26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
+      <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="n">
+      <c r="B27" s="1" t="n">
         <v>26</v>
       </c>
+      <c r="C27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="n">
+      <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="n">
+      <c r="B28" s="1" t="n">
         <v>27</v>
       </c>
+      <c r="C28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="n">
+      <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="n">
+      <c r="B29" s="1" t="n">
         <v>28</v>
       </c>
+      <c r="C29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="n">
+      <c r="A30" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="n">
+      <c r="B30" s="1" t="n">
         <v>29</v>
       </c>
+      <c r="C30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="n">
+      <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="n">
+      <c r="B31" s="1" t="n">
         <v>30</v>
       </c>
+      <c r="C31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="n">
+      <c r="A32" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="n">
+      <c r="B32" s="1" t="n">
         <v>31</v>
       </c>
+      <c r="C32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="n">
+      <c r="A33" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="n">
+      <c r="B33" s="1" t="n">
         <v>32</v>
       </c>
+      <c r="C33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="n">
+      <c r="A34" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="2" t="n">
+      <c r="B34" s="1" t="n">
         <v>33</v>
       </c>
+      <c r="C34" s="1"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="n">
+      <c r="A35" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="2" t="n">
+      <c r="B35" s="1" t="n">
         <v>34</v>
       </c>
+      <c r="C35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="n">
+      <c r="A36" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="n">
+      <c r="B36" s="1" t="n">
         <v>35</v>
       </c>
+      <c r="C36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="n">
+      <c r="A37" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="2" t="n">
+      <c r="B37" s="1" t="n">
         <v>36</v>
       </c>
+      <c r="C37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="n">
+      <c r="A38" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="2" t="n">
+      <c r="B38" s="1" t="n">
         <v>37</v>
       </c>
+      <c r="C38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="n">
+      <c r="A39" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="2" t="n">
+      <c r="B39" s="1" t="n">
         <v>38</v>
       </c>
+      <c r="C39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="n">
+      <c r="A40" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="2" t="n">
+      <c r="B40" s="1" t="n">
         <v>39</v>
       </c>
+      <c r="C40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="n">
+      <c r="A41" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="2" t="n">
+      <c r="B41" s="1" t="n">
         <v>40</v>
       </c>
+      <c r="C41" s="1"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="n">
+      <c r="A42" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="2" t="n">
+      <c r="B42" s="1" t="n">
         <v>41</v>
       </c>
+      <c r="C42" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1856,228 +6150,556 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>118</v>
+      <c r="B1" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="C2" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="C3" s="1" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="C4" s="1" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="1" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="1" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="1" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="1" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="1" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="1" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B14" s="1" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B15" s="1" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="n">
+      <c r="B16" s="1" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="n">
+      <c r="B17" s="1" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
+      <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="n">
+      <c r="B18" s="1" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
+      <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="n">
+      <c r="B19" s="1" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
+      <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="n">
+      <c r="B20" s="1" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
+      <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="n">
+      <c r="B21" s="1" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
+      <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="n">
+      <c r="B22" s="1" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
+      <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="n">
+      <c r="B23" s="1" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
+      <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="n">
+      <c r="B24" s="1" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
+      <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="n">
+      <c r="B25" s="1" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
+      <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="n">
+      <c r="B26" s="1" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
+      <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="n">
+      <c r="B27" s="1" t="n">
         <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.7"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.7"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
